--- a/export/Mat-klokan.xlsx
+++ b/export/Mat-klokan.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,47 +427,54 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>a</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>aa</t>
+          <t>Výsledky pro kategorii Cvrček</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>aaa</t>
+          <t>a</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>aaaa</t>
+          <t>aa</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>aaaaa</t>
+          <t>aaa</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>aaaaaa</t>
+          <t>aaaa</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
+        <is>
+          <t>aaaaa</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>aaaaaa</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>aaaaaaa</t>
         </is>
@@ -484,7 +491,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,6 +502,13 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Výsledky pro kategorii Klokánek</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>a</t>
         </is>
       </c>
@@ -510,7 +524,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,6 +535,13 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Výsledky pro kategorii Benjamín</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>a</t>
         </is>
       </c>
@@ -536,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -547,6 +568,13 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Výsledky pro kategorii Student</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>a</t>
         </is>
       </c>
